--- a/Data/Revised/Pilot_data_extraction.xlsx
+++ b/Data/Revised/Pilot_data_extraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3439723_ad_unsw_edu_au/Documents/Overview of reviews_trans environment effects/Protocol/Non-genetic_umbrella_review_prot/Data/Revised/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{17CBDBE2-A24F-481C-A3EC-3F30C88F2267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD0D2CD-5618-48AB-B49A-89620920F65F}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{17CBDBE2-A24F-481C-A3EC-3F30C88F2267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1ACCB1D-A60C-4A20-A1A9-1D359B78DDE9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="25" activeTab="26" xr2:uid="{E4D07577-1050-462D-A7B0-049CD472D6CE}"/>
+    <workbookView xWindow="28680" yWindow="-8160" windowWidth="29040" windowHeight="15840" firstSheet="25" activeTab="29" xr2:uid="{E4D07577-1050-462D-A7B0-049CD472D6CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Publication_info" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
     <sheet name="Exposure_timing_info" sheetId="13" r:id="rId10"/>
     <sheet name="Descendant_trait_info" sheetId="4" r:id="rId11"/>
     <sheet name="Descendant_sex_info" sheetId="27" r:id="rId12"/>
-    <sheet name="Descendant_age_info" sheetId="26" r:id="rId13"/>
-    <sheet name="Descendant_generat_info" sheetId="10" r:id="rId14"/>
-    <sheet name="Assessment" sheetId="32" r:id="rId15"/>
-    <sheet name="Topic_code_info" sheetId="33" r:id="rId16"/>
+    <sheet name="Topic_code_info" sheetId="33" r:id="rId13"/>
+    <sheet name="Descendant_age_info" sheetId="26" r:id="rId14"/>
+    <sheet name="Descendant_generat_info" sheetId="10" r:id="rId15"/>
+    <sheet name="Assessment" sheetId="32" r:id="rId16"/>
     <sheet name="Discipline_code_info" sheetId="47" r:id="rId17"/>
     <sheet name="Terminology_code_info" sheetId="48" r:id="rId18"/>
     <sheet name="Mutagen_code_info" sheetId="35" r:id="rId19"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="379">
   <si>
     <t>id</t>
   </si>
@@ -2388,6 +2388,68 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB26A13-7E14-EF45-8556-B11E855800E1}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6650F4-62AA-4CA2-9375-A2141C6E432D}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2539,12 +2601,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416C9232-59E0-41EE-BE81-9AF0378F8F26}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2569,32 +2631,32 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
+      <c r="B2" s="6" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6">
-        <v>2</v>
+      <c r="B3" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6">
-        <v>3</v>
+      <c r="B4" s="6" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
+      <c r="B5" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>210</v>
@@ -2604,48 +2666,48 @@
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
+      <c r="B6" s="6" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
+      <c r="B7" s="6" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
+      <c r="B8" s="6" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="6">
-        <v>2</v>
+      <c r="B9" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="6">
-        <v>3</v>
+      <c r="B10" s="6" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="6">
-        <v>4</v>
+      <c r="B11" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>211</v>
@@ -2655,16 +2717,17 @@
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
+      <c r="B12" s="6" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9733E463-A3C7-4753-9858-703C94BFFF08}">
   <dimension ref="A1:AH8"/>
   <sheetViews>
@@ -3246,156 +3309,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB26A13-7E14-EF45-8556-B11E855800E1}">
-  <dimension ref="A1:C4"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F751489-E693-4B48-AC41-368023F22E44}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>275</v>
       </c>
       <c r="B4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>269</v>
       </c>
-      <c r="C4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F751489-E693-4B48-AC41-368023F22E44}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
       <c r="B7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3406,70 +3385,54 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE1CE18-51CC-484C-83B0-A4CD222BE08D}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>57</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1" s="7" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>282</v>
       </c>
       <c r="B2" t="s">
         <v>282</v>
       </c>
-      <c r="C2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>283</v>
       </c>
       <c r="B3" t="s">
         <v>283</v>
       </c>
-      <c r="C3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>269</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3480,55 +3443,43 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B364E793-07A0-6D4D-AB49-6415CBEBEFFD}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>59</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C1" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>282</v>
       </c>
       <c r="B2" t="s">
         <v>282</v>
       </c>
-      <c r="C2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>283</v>
       </c>
       <c r="B3" t="s">
         <v>283</v>
       </c>
-      <c r="C3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3733,80 +3684,62 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16D73C6-8762-1643-96A9-B2D09C103F0B}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>358</v>
       </c>
       <c r="B1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>286</v>
       </c>
       <c r="B2" t="s">
         <v>286</v>
       </c>
-      <c r="C2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>287</v>
       </c>
       <c r="B3" t="s">
         <v>287</v>
       </c>
-      <c r="C3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>288</v>
       </c>
       <c r="B4" t="s">
         <v>288</v>
       </c>
-      <c r="C4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>289</v>
       </c>
       <c r="B5" t="s">
         <v>289</v>
       </c>
-      <c r="C5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>269</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3817,69 +3750,54 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7401DF5-B1B8-F641-9621-2673388396BF}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>180</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C1" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>290</v>
       </c>
       <c r="B2" t="s">
         <v>290</v>
       </c>
-      <c r="C2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>291</v>
       </c>
       <c r="B3" t="s">
         <v>291</v>
       </c>
-      <c r="C3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>269</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3890,55 +3808,43 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4E950F-0C26-5444-A5AF-D69B88B52E78}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>183</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C1" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>376</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>377</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3949,58 +3855,46 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92B8F96-5C75-D14C-9D5F-238B815F2E5D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>185</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C1" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>297</v>
       </c>
       <c r="B2" t="s">
         <v>297</v>
       </c>
-      <c r="C2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>298</v>
       </c>
       <c r="B3" t="s">
         <v>298</v>
       </c>
-      <c r="C3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4011,121 +3905,91 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A01A67-1969-114C-B4E2-73F02B0B2F46}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>187</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>371</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C1" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>299</v>
       </c>
       <c r="B2" t="s">
         <v>299</v>
       </c>
-      <c r="C2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>300</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>306</v>
       </c>
       <c r="B6" t="s">
         <v>306</v>
       </c>
-      <c r="C6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>307</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C8" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>311</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C9" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>289</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4136,55 +4000,43 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73F9E02-95DD-5B42-BFB2-1ED98A3FBF72}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>191</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>353</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C1" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>313</v>
       </c>
       <c r="B2" t="s">
         <v>313</v>
       </c>
-      <c r="C2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>314</v>
       </c>
       <c r="B3" t="s">
         <v>314</v>
       </c>
-      <c r="C3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4195,77 +4047,59 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F783297-06FA-024B-B70D-7B5962ABFF22}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>193</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>362</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C1" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>315</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>317</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>319</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>321</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>269</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4278,13 +4112,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A10FAB8-144D-B541-882F-A06428B1F5CC}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4405,77 +4239,59 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD65EF1-DAD5-854D-8A45-B5ED4653BA7E}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>202</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>364</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>339</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>343</v>
       </c>
       <c r="B4" t="s">
         <v>343</v>
       </c>
-      <c r="C4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>344</v>
       </c>
       <c r="B5" t="s">
         <v>344</v>
       </c>
-      <c r="C5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>269</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4486,55 +4302,43 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4724F2-19CA-194E-A016-290C5FBDEF50}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>345</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C1" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>346</v>
       </c>
       <c r="B2" t="s">
         <v>346</v>
       </c>
-      <c r="C2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>347</v>
       </c>
       <c r="B3" t="s">
         <v>347</v>
       </c>
-      <c r="C3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5574,77 +5378,59 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44207713-DEE9-6245-84D1-011E443B5419}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>208</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>366</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C1" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>348</v>
       </c>
       <c r="B2" t="s">
         <v>348</v>
       </c>
-      <c r="C2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>349</v>
       </c>
       <c r="B3" t="s">
         <v>349</v>
       </c>
-      <c r="C3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>350</v>
       </c>
       <c r="B4" t="s">
         <v>350</v>
       </c>
-      <c r="C4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>351</v>
       </c>
       <c r="B5" t="s">
         <v>351</v>
       </c>
-      <c r="C5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C6" t="s">
         <v>352</v>
       </c>
     </row>
